--- a/Tarigopula_LabExam03Grading.xlsx
+++ b/Tarigopula_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>Author notation</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t xml:space="preserve">Duduct full marks for </t>
+  </si>
+  <si>
+    <t>For incorrect scanning of data from input file</t>
+  </si>
+  <si>
+    <t>For no output</t>
+  </si>
+  <si>
+    <t>For compilation error</t>
   </si>
 </sst>
 </file>
@@ -396,7 +405,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,19 +429,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,6 +542,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -540,15 +558,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1220,7 +1229,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A33:F34" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A33:F34" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A33:F34"/>
   <tableColumns count="6">
     <tableColumn id="1" name="S. No" dataDxfId="4"/>
@@ -1499,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,14 +1523,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1602,11 +1611,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1618,14 +1627,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1720,11 +1729,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1736,14 +1745,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1890,11 +1899,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1906,14 +1915,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -1948,8 +1957,12 @@
       <c r="D29" s="2">
         <v>16</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="32"/>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
@@ -1964,34 +1977,38 @@
       <c r="D30" s="2">
         <v>4</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(E29:E30)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2030,11 +2047,11 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2046,14 +2063,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2069,28 +2086,35 @@
         <v>-5</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>-5</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2098,11 +2122,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tarigopula_LabExam03Grading.xlsx
+++ b/Tarigopula_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>Author notation</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>For compilation error</t>
+  </si>
+  <si>
+    <t>(-1) for not seperating two instance variables by hyphen</t>
   </si>
 </sst>
 </file>
@@ -408,6 +411,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,18 +433,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1509,7 +1512,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,14 +1526,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1565,7 +1568,9 @@
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1579,7 +1584,9 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1593,7 +1600,9 @@
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1607,34 +1616,36 @@
       <c r="D6" s="18">
         <v>2</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="18">
+        <v>2</v>
+      </c>
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(E3:E6)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1667,7 +1678,9 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1681,7 +1694,9 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1695,7 +1710,9 @@
       <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,7 +1726,9 @@
       <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1725,34 +1744,38 @@
       <c r="D14" s="18">
         <v>2</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E10:E14)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1899,11 +1922,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1915,14 +1938,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -1985,11 +2008,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2001,14 +2024,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2047,11 +2070,11 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2063,14 +2086,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2093,28 +2116,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2122,6 +2140,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tarigopula_LabExam03Grading.xlsx
+++ b/Tarigopula_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>Author notation</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>(-1) for not seperating two instance variables by hyphen</t>
+  </si>
+  <si>
+    <t>(-2)Fir not initializing the hash map.</t>
+  </si>
+  <si>
+    <t>(-5) For incorrect logic.</t>
+  </si>
+  <si>
+    <t>(-7) For not passing test cases.</t>
   </si>
 </sst>
 </file>
@@ -411,7 +420,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,16 +441,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1511,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,14 +1535,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1622,11 +1631,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1638,14 +1647,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1752,11 +1761,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1768,14 +1777,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1810,8 +1819,12 @@
       <c r="D18" s="2">
         <v>2</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1824,7 +1837,9 @@
       <c r="D19" s="2">
         <v>2</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1840,8 +1855,12 @@
       <c r="D20" s="2">
         <v>10</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -1918,34 +1937,36 @@
       <c r="D25" s="18">
         <v>2</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="18">
+        <v>2</v>
+      </c>
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2008,11 +2029,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2024,14 +2045,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2066,15 +2087,19 @@
       <c r="D34" s="2">
         <v>7</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2086,14 +2111,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2116,23 +2141,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2140,11 +2170,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tarigopula_LabExam03Grading.xlsx
+++ b/Tarigopula_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533575\Downloads\LabExam3\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>Author notation</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>(-1) for not seperating two instance variables by hyphen</t>
+  </si>
+  <si>
+    <t>For not writing the logic/Functionality</t>
+  </si>
+  <si>
+    <t>For incorrect logic</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,16 +438,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1511,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,14 +1532,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1622,11 +1628,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1638,14 +1644,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1752,11 +1758,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1768,14 +1774,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1856,8 +1862,12 @@
       <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -1888,8 +1898,12 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="2">
+        <v>8</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1922,30 +1936,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2008,11 +2022,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2024,14 +2038,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2070,11 +2084,11 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2086,14 +2100,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2116,23 +2130,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2140,11 +2159,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tarigopula_LabExam03Grading.xlsx
+++ b/Tarigopula_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>Author notation</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>(-7) For not passing test cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -7 for incomplete method</t>
   </si>
 </sst>
 </file>
@@ -420,6 +423,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,18 +445,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1520,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,14 +1538,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1631,11 +1634,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1647,14 +1650,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1761,11 +1764,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1777,14 +1780,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1891,8 +1894,12 @@
       <c r="D22" s="2">
         <v>10</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
@@ -1923,8 +1930,12 @@
       <c r="D24" s="2">
         <v>10</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -1943,30 +1954,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2029,11 +2040,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2045,14 +2056,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2095,11 +2106,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2111,14 +2122,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2141,28 +2152,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2170,6 +2176,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tarigopula_LabExam03Grading.xlsx
+++ b/Tarigopula_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>Author notation</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t xml:space="preserve"> -7 for incomplete method</t>
+  </si>
+  <si>
+    <t>For not writing logic</t>
+  </si>
+  <si>
+    <t>Incorrect logic</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,16 +450,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1523,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,14 +1544,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1634,11 +1640,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1650,14 +1656,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1764,11 +1770,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1780,14 +1786,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1878,8 +1884,12 @@
       <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -1914,8 +1924,12 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="2">
+        <v>8</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1954,30 +1968,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2040,11 +2054,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2056,14 +2070,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2106,11 +2120,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2122,14 +2136,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2152,23 +2166,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2176,11 +2195,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tarigopula_LabExam03Grading.xlsx
+++ b/Tarigopula_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,15 +149,6 @@
     <t xml:space="preserve">Duduct full marks for </t>
   </si>
   <si>
-    <t>For incorrect scanning of data from input file</t>
-  </si>
-  <si>
-    <t>For no output</t>
-  </si>
-  <si>
-    <t>For compilation error</t>
-  </si>
-  <si>
     <t>(-1) for not seperating two instance variables by hyphen</t>
   </si>
   <si>
@@ -177,6 +168,15 @@
   </si>
   <si>
     <t>Incorrect logic</t>
+  </si>
+  <si>
+    <t>(-10) for not checking condition if the scanned input is Customer or not and intializing customer object and splitting the product and brandname and initializing product</t>
+  </si>
+  <si>
+    <t>(-4) for no output returned due to compilation errors</t>
+  </si>
+  <si>
+    <t>(-5) for compilation errors in CustomerMapping class in addProduct() and other methods.</t>
   </si>
 </sst>
 </file>
@@ -429,6 +429,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,18 +451,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1530,7 +1530,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,14 +1544,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1640,11 +1640,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1656,14 +1656,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1766,15 +1766,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1786,14 +1786,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1868,7 +1868,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1888,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1908,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1928,7 +1928,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1968,11 +1968,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1984,14 +1984,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2027,10 +2027,10 @@
         <v>16</v>
       </c>
       <c r="E29" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2050,34 +2050,34 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(E29:E30)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2116,15 +2116,15 @@
         <v>0</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2136,14 +2136,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2162,32 +2162,27 @@
         <v>-5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2195,6 +2190,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tarigopula_LabExam03Grading.xlsx
+++ b/Tarigopula_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -155,9 +155,6 @@
     <t>(-2)Fir not initializing the hash map.</t>
   </si>
   <si>
-    <t>(-5) For incorrect logic.</t>
-  </si>
-  <si>
     <t>(-7) For not passing test cases.</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>(-5) for compilation errors in CustomerMapping class in addProduct() and other methods.</t>
+  </si>
+  <si>
+    <t>(-7) For incorrect condition for checking if customer exists or not and no need to iterate over products.</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,16 +450,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1530,7 +1530,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,14 +1544,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1640,11 +1640,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1656,14 +1656,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1770,11 +1770,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1786,14 +1786,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1865,10 +1865,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1888,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1908,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1928,7 +1928,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1968,30 +1968,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2030,7 +2030,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2050,15 +2050,15 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2070,14 +2070,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2116,15 +2116,15 @@
         <v>0</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2136,14 +2136,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2162,27 +2162,32 @@
         <v>-5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2190,11 +2195,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tarigopula_LabExam03Grading.xlsx
+++ b/Tarigopula_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533985\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>Author notation</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>(-7) For incorrect condition for checking if customer exists or not and no need to iterate over products.</t>
+  </si>
+  <si>
+    <t>(-0.25) for wrong file name</t>
   </si>
 </sst>
 </file>
@@ -429,6 +432,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,18 +454,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1529,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,14 +1547,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1587,9 +1590,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
@@ -1640,30 +1645,30 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(E3:E6)</f>
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1770,11 +1775,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1786,14 +1791,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1968,11 +1973,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1984,14 +1989,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2054,11 +2059,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2070,14 +2075,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2120,11 +2125,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2136,14 +2141,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2166,28 +2171,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>40</v>
+        <v>39.75</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2195,6 +2195,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tarigopula_LabExam03Grading.xlsx
+++ b/Tarigopula_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533985\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>Author notation</t>
   </si>
@@ -158,9 +158,6 @@
     <t>(-7) For not passing test cases.</t>
   </si>
   <si>
-    <t xml:space="preserve"> -7 for incomplete method</t>
-  </si>
-  <si>
     <t>For not writing logic</t>
   </si>
   <si>
@@ -180,6 +177,12 @@
   </si>
   <si>
     <t>(-0.25) for wrong file name</t>
+  </si>
+  <si>
+    <t>(-2) for not iterating over values,(-2) for not comparing the brand names,(-2)for not adding customer names into the set</t>
+  </si>
+  <si>
+    <t>(-2) for not iterating over key,(-2) for not iterating over values,(-2) for not comparing the product names,(-1)for not adding brand names into the set</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -444,16 +456,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1532,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,14 +1550,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1593,7 +1596,7 @@
         <v>0.75</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1645,11 +1648,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1661,14 +1664,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1775,11 +1778,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1791,14 +1794,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1873,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1893,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1910,10 +1913,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1933,7 +1936,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1953,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1973,30 +1976,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2035,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2055,15 +2058,15 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2075,14 +2078,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2125,11 +2128,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2141,14 +2144,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2167,27 +2170,32 @@
         <v>-5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>39.75</v>
+        <v>40.75</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2195,11 +2203,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tarigopula_LabExam03Grading.xlsx
+++ b/Tarigopula_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533575\Downloads\LabExam3\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,12 +158,6 @@
     <t>(-7) For not passing test cases.</t>
   </si>
   <si>
-    <t>For not writing logic</t>
-  </si>
-  <si>
-    <t>Incorrect logic</t>
-  </si>
-  <si>
     <t>(-10) for not checking condition if the scanned input is Customer or not and intializing customer object and splitting the product and brandname and initializing product</t>
   </si>
   <si>
@@ -183,6 +177,12 @@
   </si>
   <si>
     <t>(-2) for not iterating over key,(-2) for not iterating over values,(-2) for not comparing the product names,(-1)for not adding brand names into the set</t>
+  </si>
+  <si>
+    <t>(-)Incorrect logic to find the unique values.</t>
+  </si>
+  <si>
+    <t>(-7) For not writing logic to find the no of customers.</t>
   </si>
 </sst>
 </file>
@@ -435,6 +435,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,18 +457,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,14 +1550,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1596,7 +1596,7 @@
         <v>0.75</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1648,11 +1648,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1664,14 +1664,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1778,11 +1778,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1794,14 +1794,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1876,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1893,10 +1893,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1916,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1933,10 +1933,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1956,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1976,30 +1976,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2038,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2058,15 +2058,15 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2078,14 +2078,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2128,11 +2128,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2144,14 +2144,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2170,32 +2170,27 @@
         <v>-5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>40.75</v>
+        <v>42.75</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2203,6 +2198,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
